--- a/Tiradas/Tiradas.xlsx
+++ b/Tiradas/Tiradas.xlsx
@@ -549,10 +549,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="0">
-        <v>81.481481481481481</v>
+        <v>66.670000000000002</v>
       </c>
       <c r="G2" s="0">
-        <v>18.518518518518519</v>
+        <v>33.329999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -560,22 +560,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>89.285714285714292</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>10.714285714285714</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -583,22 +583,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>96.15384615384616</v>
+        <v>60.710000000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>3.8461538461538463</v>
+        <v>39.289999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>3.8461538461538463</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0">
-        <v>96.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>62.960000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>100</v>
+        <v>37.039999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -606,16 +606,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0">
         <v>0</v>
@@ -629,22 +629,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>54.166666666666664</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="C6" s="0">
-        <v>45.833333333333329</v>
+        <v>51.850000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>67.857142857142861</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>32.142857142857146</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0">
-        <v>84.615384615384613</v>
+        <v>100</v>
       </c>
       <c r="G6" s="0">
-        <v>15.384615384615385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="0">
-        <v>44.444444444444443</v>
+        <v>17.859999999999999</v>
       </c>
       <c r="G7" s="0">
-        <v>55.555555555555557</v>
+        <v>82.140000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -675,22 +675,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>85.18518518518519</v>
+        <v>5.2599999999999998</v>
       </c>
       <c r="C8" s="0">
-        <v>14.814814814814813</v>
+        <v>94.739999999999995</v>
       </c>
       <c r="D8" s="0">
-        <v>64</v>
+        <v>57.890000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>36</v>
+        <v>42.109999999999999</v>
       </c>
       <c r="F8" s="0">
-        <v>74.074074074074076</v>
+        <v>13.890000000000001</v>
       </c>
       <c r="G8" s="0">
-        <v>25.925925925925924</v>
+        <v>86.109999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -698,22 +698,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>28.000000000000004</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>100</v>
+        <v>73.079999999999998</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>26.920000000000002</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G9" s="0">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -721,22 +721,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>100</v>
+        <v>79.310000000000002</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>20.690000000000001</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>30.43</v>
       </c>
       <c r="E10" s="0">
-        <v>100</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="F10" s="0">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G10" s="0">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>100</v>
+        <v>11.109999999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>88.890000000000001</v>
       </c>
       <c r="D11" s="0">
         <v>100</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>26.923076923076923</v>
+        <v>84</v>
       </c>
       <c r="G11" s="0">
-        <v>73.076923076923066</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -773,16 +773,16 @@
         <v>100</v>
       </c>
       <c r="D12" s="0">
-        <v>37.037037037037038</v>
+        <v>100</v>
       </c>
       <c r="E12" s="0">
-        <v>62.962962962962962</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>29.629629629629626</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>70.370370370370367</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -796,16 +796,16 @@
         <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>52.173913043478258</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>47.826086956521742</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -813,22 +813,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>55.065951024284367</v>
+        <v>17.050000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>44.934048975715633</v>
+        <v>82.959999999999994</v>
       </c>
       <c r="D14" s="0">
-        <v>48.951187231984335</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="E14" s="0">
-        <v>51.048812768015665</v>
+        <v>61.549999999999997</v>
       </c>
       <c r="F14" s="0">
-        <v>40.764007597340928</v>
+        <v>46.030000000000001</v>
       </c>
       <c r="G14" s="0">
-        <v>59.235992402659065</v>
+        <v>53.969999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>100</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -900,22 +900,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>50</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="C3" s="0">
-        <v>50</v>
+        <v>60.869999999999997</v>
       </c>
       <c r="D3" s="0">
-        <v>26.923076923076923</v>
+        <v>10.34</v>
       </c>
       <c r="E3" s="0">
-        <v>73.076923076923066</v>
+        <v>89.659999999999997</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>42.310000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>100</v>
+        <v>57.689999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>13.043478260869565</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0">
-        <v>86.956521739130437</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>57.692307692307686</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>42.307692307692307</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -946,10 +946,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>100</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>11.539999999999999</v>
       </c>
       <c r="D5" s="0">
         <v>100</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>25.925925925925924</v>
+        <v>19.23</v>
       </c>
       <c r="E6" s="0">
-        <v>74.074074074074076</v>
+        <v>80.769999999999996</v>
       </c>
       <c r="F6" s="0">
-        <v>100</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>76.920000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -998,10 +998,10 @@
         <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>100</v>
       </c>
       <c r="D8" s="0">
-        <v>3.8461538461538463</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0">
-        <v>96.15384615384616</v>
+        <v>96</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -1038,22 +1038,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>76.470588235294116</v>
+        <v>71.049999999999997</v>
       </c>
       <c r="C9" s="0">
-        <v>23.52941176470588</v>
+        <v>28.949999999999999</v>
       </c>
       <c r="D9" s="0">
-        <v>64.705882352941174</v>
+        <v>100</v>
       </c>
       <c r="E9" s="0">
-        <v>35.294117647058826</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="G9" s="0">
-        <v>100</v>
+        <v>83.329999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -1061,22 +1061,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>61.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>38.461538461538467</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1084,22 +1084,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>100</v>
+        <v>66.670000000000002</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="D11" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="G11" s="0">
-        <v>100</v>
+        <v>69.230000000000004</v>
       </c>
     </row>
     <row r="12">
@@ -1113,16 +1113,16 @@
         <v>100</v>
       </c>
       <c r="D12" s="0">
-        <v>16.666666666666664</v>
+        <v>26.920000000000002</v>
       </c>
       <c r="E12" s="0">
-        <v>83.333333333333343</v>
+        <v>73.079999999999998</v>
       </c>
       <c r="F12" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1136,16 +1136,16 @@
         <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="E13" s="0">
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>45.829999999999998</v>
       </c>
       <c r="G13" s="0">
-        <v>100</v>
+        <v>54.170000000000002</v>
       </c>
     </row>
     <row r="14">
@@ -1153,22 +1153,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>49.000754147812977</v>
+        <v>38.780000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>50.999245852187023</v>
+        <v>61.219999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>40.370376442413949</v>
+        <v>56.960000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>59.629623557586058</v>
+        <v>43.039999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>22.474358974358974</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="G14" s="0">
-        <v>77.525641025641036</v>
+        <v>78.450000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1217,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>80.769999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>100</v>
+        <v>19.23</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="0">
-        <v>23.076923076923077</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>76.923076923076934</v>
+        <v>53.850000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1240,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0">
-        <v>28.000000000000004</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0">
         <v>100</v>
@@ -1269,16 +1269,16 @@
         <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="G4" s="0">
-        <v>100</v>
+        <v>66.670000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -1292,16 +1292,16 @@
         <v>100</v>
       </c>
       <c r="D5" s="0">
-        <v>38.461538461538467</v>
+        <v>44</v>
       </c>
       <c r="E5" s="0">
-        <v>61.53846153846154</v>
+        <v>56</v>
       </c>
       <c r="F5" s="0">
-        <v>22.222222222222221</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0">
-        <v>77.777777777777786</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1315,16 +1315,16 @@
         <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>80.769230769230774</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>19.230769230769234</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>92.310000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -1332,22 +1332,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>51.851851851851848</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0">
-        <v>48.148148148148145</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0">
-        <v>77.777777777777786</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
-        <v>22.222222222222221</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1355,22 +1355,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>70.370370370370367</v>
+        <v>76</v>
       </c>
       <c r="C8" s="0">
-        <v>29.629629629629626</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0">
-        <v>40</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="E8" s="0">
-        <v>60</v>
+        <v>51.850000000000001</v>
       </c>
       <c r="F8" s="0">
-        <v>4.1666666666666661</v>
+        <v>54.170000000000002</v>
       </c>
       <c r="G8" s="0">
-        <v>95.833333333333343</v>
+        <v>45.829999999999998</v>
       </c>
     </row>
     <row r="9">
@@ -1378,22 +1378,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="C9" s="0">
-        <v>3.7037037037037033</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>19.23</v>
       </c>
       <c r="G9" s="0">
-        <v>100</v>
+        <v>80.769999999999996</v>
       </c>
     </row>
     <row r="10">
@@ -1401,22 +1401,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>65.384615384615387</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>34.615384615384613</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>57.692307692307686</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="E10" s="0">
-        <v>42.307692307692307</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="F10" s="0">
-        <v>26.923076923076923</v>
+        <v>100</v>
       </c>
       <c r="G10" s="0">
-        <v>73.076923076923066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1436,10 +1436,10 @@
         <v>100</v>
       </c>
       <c r="F11" s="0">
-        <v>21.428571428571427</v>
+        <v>88.890000000000001</v>
       </c>
       <c r="G11" s="0">
-        <v>78.571428571428569</v>
+        <v>11.109999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1453,16 +1453,16 @@
         <v>100</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>88.890000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>100</v>
+        <v>11.109999999999999</v>
       </c>
       <c r="F12" s="0">
-        <v>22.222222222222221</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0">
-        <v>77.777777777777786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1470,22 +1470,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>30.76923076923077</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="C13" s="0">
-        <v>69.230769230769226</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="D13" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="G13" s="0">
-        <v>100</v>
+        <v>96.150000000000006</v>
       </c>
     </row>
     <row r="14">
@@ -1493,22 +1493,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>32.222697056030391</v>
+        <v>42.409999999999997</v>
       </c>
       <c r="C14" s="0">
-        <v>67.777302943969616</v>
+        <v>57.590000000000003</v>
       </c>
       <c r="D14" s="0">
-        <v>48.743589743589745</v>
+        <v>25.73</v>
       </c>
       <c r="E14" s="0">
-        <v>51.256410256410255</v>
+        <v>74.269999999999996</v>
       </c>
       <c r="F14" s="0">
-        <v>16.484788359788361</v>
+        <v>42.780000000000001</v>
       </c>
       <c r="G14" s="0">
-        <v>83.515211640211646</v>
+        <v>57.219999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1557,22 +1557,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="C2" s="0">
-        <v>100</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="E2" s="0">
-        <v>100</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1580,16 +1580,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>51.851851851851848</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0">
-        <v>48.148148148148145</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0">
         <v>100</v>
@@ -1609,16 +1609,16 @@
         <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>95.833333333333343</v>
+        <v>51.850000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>4.1666666666666661</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>34.615384615384613</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>65.384615384615387</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1632,16 +1632,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="E5" s="0">
-        <v>100</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="F5" s="0">
-        <v>28.000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1649,22 +1649,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>24.137931034482758</v>
+        <v>92.590000000000003</v>
       </c>
       <c r="C6" s="0">
-        <v>75.862068965517238</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>38.460000000000001</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>61.539999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1672,22 +1672,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>16</v>
+        <v>29.629999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>84</v>
+        <v>70.370000000000005</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F7" s="0">
-        <v>100</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="G7" s="0">
-        <v>0</v>
+        <v>96.299999999999997</v>
       </c>
     </row>
     <row r="8">
@@ -1695,10 +1695,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>38.461538461538467</v>
+        <v>100</v>
       </c>
       <c r="C8" s="0">
-        <v>61.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1724,16 +1724,16 @@
         <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>84.615384615384613</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>15.384615384615385</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1741,22 +1741,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>100</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>28.57</v>
       </c>
       <c r="G10" s="0">
-        <v>100</v>
+        <v>71.430000000000007</v>
       </c>
     </row>
     <row r="11">
@@ -1764,22 +1764,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>76.923076923076934</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="E11" s="0">
-        <v>100</v>
+        <v>96.299999999999997</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1787,22 +1787,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>14.81</v>
       </c>
       <c r="G12" s="0">
-        <v>100</v>
+        <v>85.189999999999998</v>
       </c>
     </row>
     <row r="13">
@@ -1810,22 +1810,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>14.814814814814813</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0">
-        <v>85.18518518518519</v>
+        <v>92</v>
       </c>
       <c r="F13" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1833,22 +1833,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>33.864533189245833</v>
+        <v>53.780000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>66.135466810754167</v>
+        <v>46.229999999999997</v>
       </c>
       <c r="D14" s="0">
-        <v>37.063627730294399</v>
+        <v>20.73</v>
       </c>
       <c r="E14" s="0">
-        <v>62.936372269705601</v>
+        <v>79.269999999999996</v>
       </c>
       <c r="F14" s="0">
-        <v>38.551282051282051</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="G14" s="0">
-        <v>61.448717948717949</v>
+        <v>62.460000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1897,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>96.296296296296291</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>3.7037037037037033</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0">
         <v>100</v>
@@ -1920,16 +1920,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>57.689999999999998</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>42.310000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -1943,22 +1943,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>100</v>
+        <v>14.81</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>85.189999999999998</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>22.219999999999999</v>
       </c>
       <c r="G4" s="0">
-        <v>100</v>
+        <v>77.780000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1966,22 +1966,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>3.8461538461538463</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0">
-        <v>96.15384615384616</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0">
-        <v>45.833333333333329</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>54.166666666666664</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>11.538461538461538</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="G5" s="0">
-        <v>88.461538461538453</v>
+        <v>51.850000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1989,22 +1989,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D6" s="0">
-        <v>15.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>84.615384615384613</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>14.81</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>85.189999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -2012,22 +2012,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>19.230769230769234</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="C7" s="0">
-        <v>80.769230769230774</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="F7" s="0">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
-        <v>69.230769230769226</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2035,16 +2035,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>73.076923076923066</v>
+        <v>76</v>
       </c>
       <c r="C8" s="0">
-        <v>26.923076923076923</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0">
-        <v>100</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>96.299999999999997</v>
       </c>
       <c r="F8" s="0">
         <v>100</v>
@@ -2058,22 +2058,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>8.3333333333333321</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>91.666666666666657</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="F9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2081,10 +2081,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -2104,10 +2104,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>76.923076923076934</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
         <v>100</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>28.000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2139,10 +2139,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2150,22 +2150,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D13" s="0">
-        <v>100</v>
+        <v>37.039999999999999</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>62.960000000000001</v>
       </c>
       <c r="F13" s="0">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="G13" s="0">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2173,22 +2173,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>40.877255460588792</v>
+        <v>38.390000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>59.122744539411201</v>
+        <v>61.609999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>47.129273504273499</v>
+        <v>22.32</v>
       </c>
       <c r="E14" s="0">
-        <v>52.870726495726494</v>
+        <v>77.680000000000007</v>
       </c>
       <c r="F14" s="0">
-        <v>40.525641025641029</v>
+        <v>23.77</v>
       </c>
       <c r="G14" s="0">
-        <v>59.474358974358971</v>
+        <v>76.239999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2237,22 +2237,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0">
-        <v>3.7037037037037033</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2260,22 +2260,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>11.539999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>7.4074074074074066</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="E3" s="0">
-        <v>92.592592592592595</v>
+        <v>65.379999999999995</v>
       </c>
       <c r="F3" s="0">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>62.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -2283,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -2306,22 +2306,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>92.592592592592595</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>7.4074074074074066</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G5" s="0">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -2329,22 +2329,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>92.592592592592595</v>
+        <v>51.850000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>7.4074074074074066</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>25.93</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>74.069999999999993</v>
       </c>
     </row>
     <row r="7">
@@ -2358,16 +2358,16 @@
         <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>100</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>92.590000000000003</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>29.629999999999999</v>
       </c>
       <c r="G7" s="0">
-        <v>100</v>
+        <v>70.370000000000005</v>
       </c>
     </row>
     <row r="8">
@@ -2375,22 +2375,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>100</v>
+        <v>69.230000000000004</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="D8" s="0">
-        <v>8.3333333333333321</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>91.666666666666657</v>
+        <v>50</v>
       </c>
       <c r="F8" s="0">
-        <v>100</v>
+        <v>70.370000000000005</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>29.629999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -2398,22 +2398,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="C9" s="0">
-        <v>100</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="D9" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2421,10 +2421,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>69.230769230769226</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>30.76923076923077</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2433,10 +2433,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -2444,22 +2444,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>13.157894736842104</v>
+        <v>25.93</v>
       </c>
       <c r="C11" s="0">
-        <v>86.842105263157904</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="D11" s="0">
-        <v>2.6315789473684208</v>
+        <v>72</v>
       </c>
       <c r="E11" s="0">
-        <v>97.368421052631575</v>
+        <v>28</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G11" s="0">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2467,22 +2467,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="E12" s="0">
-        <v>100</v>
+        <v>53.850000000000001</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="G12" s="0">
-        <v>100</v>
+        <v>66.670000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -2490,22 +2490,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="0">
-        <v>4.1666666666666661</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>95.833333333333343</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="G13" s="0">
-        <v>100</v>
+        <v>53.850000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2513,22 +2513,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>47.297820762733046</v>
+        <v>28.289999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>52.702179237266954</v>
+        <v>71.709999999999994</v>
       </c>
       <c r="D14" s="0">
-        <v>31.186890838206626</v>
+        <v>21.18</v>
       </c>
       <c r="E14" s="0">
-        <v>68.813109161793378</v>
+        <v>78.819999999999993</v>
       </c>
       <c r="F14" s="0">
-        <v>21.041666666666668</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="G14" s="0">
-        <v>78.958333333333329</v>
+        <v>65.879999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2577,22 +2577,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>92.307692307692307</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>7.6923076923076925</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0">
-        <v>11.538461538461538</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="E2" s="0">
-        <v>88.461538461538453</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>100</v>
+        <v>70.370000000000005</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>29.629999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2600,22 +2600,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>14.814814814814813</v>
+        <v>88.890000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>85.18518518518519</v>
+        <v>11.109999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>100</v>
+        <v>92.590000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -2623,22 +2623,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>92.592592592592595</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>7.4074074074074066</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G4" s="0">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -2646,10 +2646,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>14.814814814814813</v>
+        <v>30.77</v>
       </c>
       <c r="C5" s="0">
-        <v>85.18518518518519</v>
+        <v>69.230000000000004</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -2669,22 +2669,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>15.789473684210526</v>
+        <v>62.960000000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>84.210526315789465</v>
+        <v>37.039999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E6" s="0">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0">
-        <v>27.777777777777779</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0">
-        <v>72.222222222222214</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -2692,22 +2692,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0">
-        <v>33.333333333333329</v>
+        <v>59.259999999999998</v>
       </c>
       <c r="E7" s="0">
-        <v>66.666666666666657</v>
+        <v>40.740000000000002</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2715,22 +2715,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C8" s="0">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="E8" s="0">
-        <v>100</v>
+        <v>96.299999999999997</v>
       </c>
       <c r="F8" s="0">
-        <v>11.111111111111111</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0">
-        <v>88.888888888888886</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -2738,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>92</v>
+        <v>17.859999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>8</v>
+        <v>82.140000000000001</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>100</v>
       </c>
       <c r="F9" s="0">
-        <v>38.461538461538467</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="G9" s="0">
-        <v>61.53846153846154</v>
+        <v>3.8500000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -2761,22 +2761,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="G10" s="0">
-        <v>100</v>
+        <v>66.670000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -2784,22 +2784,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>85.18518518518519</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>14.814814814814813</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="E11" s="0">
-        <v>100</v>
+        <v>51.850000000000001</v>
       </c>
       <c r="F11" s="0">
-        <v>33.333333333333329</v>
+        <v>77.780000000000001</v>
       </c>
       <c r="G11" s="0">
-        <v>66.666666666666657</v>
+        <v>22.219999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -2807,10 +2807,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>21.428571428571427</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>78.571428571428569</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2830,22 +2830,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>55.555555555555557</v>
+        <v>66.670000000000002</v>
       </c>
       <c r="G13" s="0">
-        <v>44.444444444444443</v>
+        <v>33.329999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -2853,22 +2853,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>41.077762068990147</v>
+        <v>43.369999999999997</v>
       </c>
       <c r="C14" s="0">
-        <v>58.922237931009853</v>
+        <v>56.630000000000003</v>
       </c>
       <c r="D14" s="0">
-        <v>16.197649572649571</v>
+        <v>30.940000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>83.802350427350419</v>
+        <v>69.060000000000002</v>
       </c>
       <c r="F14" s="0">
-        <v>24.186609686609685</v>
+        <v>58.390000000000001</v>
       </c>
       <c r="G14" s="0">
-        <v>75.813390313390315</v>
+        <v>41.609999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2917,10 +2917,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>100</v>
+        <v>96.430000000000007</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="D2" s="0">
         <v>100</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="G2" s="0">
-        <v>100</v>
+        <v>92.310000000000002</v>
       </c>
     </row>
     <row r="3">
@@ -2940,22 +2940,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D3" s="0">
-        <v>88.888888888888886</v>
+        <v>18.52</v>
       </c>
       <c r="E3" s="0">
-        <v>11.111111111111111</v>
+        <v>81.480000000000004</v>
       </c>
       <c r="F3" s="0">
-        <v>7.4074074074074066</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>92.592592592592595</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -2969,10 +2969,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>3.8461538461538463</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>96.15384615384616</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -2986,22 +2986,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>82.142857142857139</v>
+        <v>22.219999999999999</v>
       </c>
       <c r="C5" s="0">
-        <v>17.857142857142858</v>
+        <v>77.780000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>29.166666666666668</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0">
-        <v>70.833333333333343</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0">
-        <v>7.1428571428571423</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0">
-        <v>92.857142857142861</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -3009,16 +3009,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>4.1666666666666661</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>95.833333333333343</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>64.285714285714292</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>35.714285714285715</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="0">
-        <v>11.111111111111111</v>
+        <v>29.629999999999999</v>
       </c>
       <c r="G7" s="0">
-        <v>88.888888888888886</v>
+        <v>70.370000000000005</v>
       </c>
     </row>
     <row r="8">
@@ -3055,10 +3055,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="C8" s="0">
-        <v>100</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -3067,10 +3067,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="0">
-        <v>53.846153846153847</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0">
-        <v>46.153846153846153</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -3084,16 +3084,16 @@
         <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>37.039999999999999</v>
       </c>
       <c r="G9" s="0">
-        <v>100</v>
+        <v>62.960000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3101,22 +3101,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>100</v>
+        <v>18.52</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>81.480000000000004</v>
       </c>
       <c r="D10" s="0">
-        <v>52.631578947368418</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0">
-        <v>47.368421052631575</v>
+        <v>96</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3124,22 +3124,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="C11" s="0">
-        <v>100</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="D11" s="0">
-        <v>3.7037037037037033</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0">
-        <v>29.629629629629626</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>70.370370370370367</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -3147,22 +3147,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>30.76923076923077</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="C12" s="0">
-        <v>69.230769230769226</v>
+        <v>21.43</v>
       </c>
       <c r="D12" s="0">
-        <v>76.923076923076934</v>
+        <v>100</v>
       </c>
       <c r="E12" s="0">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -3170,16 +3170,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>59.259259259259252</v>
+        <v>61.539999999999999</v>
       </c>
       <c r="C13" s="0">
-        <v>40.74074074074074</v>
+        <v>38.460000000000001</v>
       </c>
       <c r="D13" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -3193,22 +3193,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>36.371421788088455</v>
+        <v>41.079999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>63.628578211911559</v>
+        <v>58.920000000000002</v>
       </c>
       <c r="D14" s="0">
-        <v>31.943894636877094</v>
+        <v>31.210000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>68.05610536312291</v>
+        <v>68.790000000000006</v>
       </c>
       <c r="F14" s="0">
-        <v>17.428096594763261</v>
+        <v>23.699999999999999</v>
       </c>
       <c r="G14" s="0">
-        <v>82.571903405236739</v>
+        <v>76.299999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3257,16 +3257,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>48.148148148148145</v>
+        <v>73.079999999999998</v>
       </c>
       <c r="E2" s="0">
-        <v>51.851851851851848</v>
+        <v>26.920000000000002</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>100</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>25.93</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
@@ -3292,10 +3292,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -3309,16 +3309,16 @@
         <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>11.539999999999999</v>
       </c>
       <c r="E4" s="0">
-        <v>100</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="F4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -3326,10 +3326,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>26.923076923076923</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="C5" s="0">
-        <v>73.076923076923066</v>
+        <v>28.57</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3349,16 +3349,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>76.923076923076934</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>58.333333333333336</v>
+        <v>100</v>
       </c>
       <c r="E6" s="0">
-        <v>41.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -3372,22 +3372,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>55.555555555555557</v>
+        <v>69.230000000000004</v>
       </c>
       <c r="G7" s="0">
-        <v>44.444444444444443</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="8">
@@ -3395,22 +3395,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>96.774193548387103</v>
+        <v>30.77</v>
       </c>
       <c r="C8" s="0">
-        <v>3.225806451612903</v>
+        <v>69.230000000000004</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -3418,22 +3418,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>28.571428571428569</v>
+        <v>100</v>
       </c>
       <c r="C9" s="0">
-        <v>71.428571428571431</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G9" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3441,22 +3441,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>11.538461538461538</v>
+        <v>13.039999999999999</v>
       </c>
       <c r="E10" s="0">
-        <v>88.461538461538453</v>
+        <v>86.959999999999994</v>
       </c>
       <c r="F10" s="0">
-        <v>67.857142857142861</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>32.142857142857146</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -3464,22 +3464,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>80</v>
+        <v>53.57</v>
       </c>
       <c r="C11" s="0">
-        <v>20</v>
+        <v>46.43</v>
       </c>
       <c r="D11" s="0">
-        <v>51.851851851851848</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>48.148148148148145</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0">
-        <v>29.166666666666668</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>70.833333333333343</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -3487,22 +3487,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>69.230769230769226</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0">
-        <v>23.076923076923077</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="E12" s="0">
-        <v>76.923076923076934</v>
+        <v>96.430000000000007</v>
       </c>
       <c r="F12" s="0">
-        <v>100</v>
+        <v>25.93</v>
       </c>
       <c r="G12" s="0">
-        <v>0</v>
+        <v>74.069999999999993</v>
       </c>
     </row>
     <row r="13">
@@ -3510,16 +3510,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -3533,22 +3533,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>53.330083894600023</v>
+        <v>50.82</v>
       </c>
       <c r="C14" s="0">
-        <v>46.669916105399977</v>
+        <v>49.18</v>
       </c>
       <c r="D14" s="0">
-        <v>18.162393162393162</v>
+        <v>41.770000000000003</v>
       </c>
       <c r="E14" s="0">
-        <v>81.837606837606828</v>
+        <v>58.229999999999997</v>
       </c>
       <c r="F14" s="0">
-        <v>52.381613756613753</v>
+        <v>24.600000000000001</v>
       </c>
       <c r="G14" s="0">
-        <v>47.618386243386247</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -3597,10 +3597,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>14.289999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>100</v>
+        <v>85.709999999999994</v>
       </c>
       <c r="D2" s="0">
         <v>100</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="0">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3620,22 +3620,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D3" s="0">
-        <v>100</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>25.93</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -3643,22 +3643,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="C4" s="0">
-        <v>100</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>12.5</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>87.5</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="F4" s="0">
-        <v>74.074074074074076</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>25.925925925925924</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -3666,10 +3666,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>38.461538461538467</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0">
-        <v>61.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
         <v>100</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3689,22 +3689,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>66.666666666666657</v>
+        <v>66.670000000000002</v>
       </c>
       <c r="C6" s="0">
-        <v>33.333333333333329</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>28.000000000000004</v>
+        <v>100</v>
       </c>
       <c r="E6" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
-        <v>19.230769230769234</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>80.769230769230774</v>
+        <v>66.670000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -3718,16 +3718,16 @@
         <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>14.814814814814813</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0">
-        <v>85.18518518518519</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>37.037037037037038</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
-        <v>62.962962962962962</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -3735,22 +3735,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0">
-        <v>11.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>88.888888888888886</v>
+        <v>100</v>
       </c>
       <c r="F8" s="0">
-        <v>3.8461538461538463</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>96.15384615384616</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -3764,10 +3764,10 @@
         <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>84</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>16</v>
+        <v>92.590000000000003</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -3781,22 +3781,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>10.714285714285714</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>89.285714285714292</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>8.3333333333333321</v>
+        <v>100</v>
       </c>
       <c r="E10" s="0">
-        <v>91.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -3804,22 +3804,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>65.384615384615387</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>34.615384615384613</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>7.6923076923076925</v>
+        <v>11.109999999999999</v>
       </c>
       <c r="E11" s="0">
-        <v>92.307692307692307</v>
+        <v>88.890000000000001</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="G11" s="0">
-        <v>100</v>
+        <v>76.920000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -3827,22 +3827,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>26.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>73.076923076923066</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0">
-        <v>100</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="F12" s="0">
-        <v>22.222222222222221</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0">
-        <v>77.777777777777786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3850,16 +3850,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0">
-        <v>100</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -3873,22 +3873,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>30.012515262515265</v>
+        <v>28.59</v>
       </c>
       <c r="C14" s="0">
-        <v>69.987484737484749</v>
+        <v>71.409999999999997</v>
       </c>
       <c r="D14" s="0">
-        <v>55.53763057929725</v>
+        <v>52.909999999999997</v>
       </c>
       <c r="E14" s="0">
-        <v>44.46236942070275</v>
+        <v>47.090000000000003</v>
       </c>
       <c r="F14" s="0">
-        <v>29.034188034188034</v>
+        <v>26.030000000000001</v>
       </c>
       <c r="G14" s="0">
-        <v>70.965811965811966</v>
+        <v>73.969999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3937,16 +3937,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>50</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>50</v>
+        <v>53.850000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>7.6923076923076925</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>92.307692307692307</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -3960,22 +3960,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>16.129032258064516</v>
+        <v>35.710000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>83.870967741935488</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="D3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0">
-        <v>100</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>11.539999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3983,22 +3983,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>70.370370370370367</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>29.629629629629626</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>4.1666666666666661</v>
+        <v>100</v>
       </c>
       <c r="G4" s="0">
-        <v>95.833333333333343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>3.7037037037037033</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0">
         <v>0</v>
@@ -4035,16 +4035,16 @@
         <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>62.960000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>100</v>
+        <v>37.039999999999999</v>
       </c>
       <c r="F6" s="0">
-        <v>37.037037037037038</v>
+        <v>61.539999999999999</v>
       </c>
       <c r="G6" s="0">
-        <v>62.962962962962962</v>
+        <v>38.460000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4052,22 +4052,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>56.000000000000007</v>
+        <v>14.81</v>
       </c>
       <c r="C7" s="0">
-        <v>44</v>
+        <v>85.189999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -4075,22 +4075,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>75</v>
+        <v>62.960000000000001</v>
       </c>
       <c r="C8" s="0">
-        <v>25</v>
+        <v>37.039999999999999</v>
       </c>
       <c r="D8" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F8" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -4104,16 +4104,16 @@
         <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>73.076923076923066</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0">
-        <v>26.923076923076923</v>
+        <v>88</v>
       </c>
       <c r="F9" s="0">
-        <v>96.296296296296291</v>
+        <v>20</v>
       </c>
       <c r="G9" s="0">
-        <v>3.7037037037037033</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -4121,10 +4121,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -4133,10 +4133,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>44.444444444444443</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="G10" s="0">
-        <v>55.555555555555557</v>
+        <v>76.920000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -4144,22 +4144,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>20.829999999999998</v>
       </c>
       <c r="E11" s="0">
-        <v>100</v>
+        <v>79.170000000000002</v>
       </c>
       <c r="F11" s="0">
-        <v>21.428571428571427</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>78.571428571428569</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -4167,22 +4167,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>26.923076923076923</v>
+        <v>100</v>
       </c>
       <c r="E12" s="0">
-        <v>73.076923076923066</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>96.299999999999997</v>
       </c>
       <c r="G12" s="0">
-        <v>100</v>
+        <v>3.7000000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -4190,22 +4190,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>21.052631578947366</v>
+        <v>55.560000000000002</v>
       </c>
       <c r="C13" s="0">
-        <v>78.94736842105263</v>
+        <v>44.439999999999998</v>
       </c>
       <c r="D13" s="0">
-        <v>71.05263157894737</v>
+        <v>88</v>
       </c>
       <c r="E13" s="0">
-        <v>28.947368421052634</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0">
-        <v>30.555555555555557</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>69.444444444444443</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -4213,22 +4213,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>32.379336183948517</v>
+        <v>51.270000000000003</v>
       </c>
       <c r="C14" s="0">
-        <v>67.620663816051476</v>
+        <v>48.729999999999997</v>
       </c>
       <c r="D14" s="0">
-        <v>25.62072024791323</v>
+        <v>41.649999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>74.379279752086774</v>
+        <v>58.350000000000001</v>
       </c>
       <c r="F14" s="0">
-        <v>29.160714285714288</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="G14" s="0">
-        <v>70.839285714285708</v>
+        <v>65.549999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4277,22 +4277,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>20.690000000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>100</v>
+        <v>79.310000000000002</v>
       </c>
       <c r="D2" s="0">
-        <v>25.925925925925924</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>74.074074074074076</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0">
-        <v>40.74074074074074</v>
+        <v>92.590000000000003</v>
       </c>
       <c r="G2" s="0">
-        <v>59.259259259259252</v>
+        <v>7.4100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4300,22 +4300,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>41.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>58.333333333333336</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4323,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0">
         <v>100</v>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="G4" s="0">
-        <v>62.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4346,22 +4346,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>84.615384615384613</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0">
-        <v>15.384615384615385</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0">
-        <v>100</v>
+        <v>62.960000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>0</v>
+        <v>37.039999999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>81.480000000000004</v>
       </c>
       <c r="G5" s="0">
-        <v>100</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="6">
@@ -4375,16 +4375,16 @@
         <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>30.76923076923077</v>
+        <v>26.09</v>
       </c>
       <c r="E6" s="0">
-        <v>69.230769230769226</v>
+        <v>73.909999999999997</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4392,22 +4392,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0">
-        <v>100</v>
+        <v>92.590000000000003</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="F7" s="0">
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -4415,10 +4415,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>81.481481481481481</v>
+        <v>46.43</v>
       </c>
       <c r="C8" s="0">
-        <v>18.518518518518519</v>
+        <v>53.57</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4438,16 +4438,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>51.851851851851848</v>
+        <v>100</v>
       </c>
       <c r="E9" s="0">
-        <v>48.148148148148145</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
         <v>100</v>
@@ -4461,16 +4461,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -4484,22 +4484,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>96.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>3.8461538461538463</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>69.230769230769226</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0">
-        <v>37.037037037037038</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>62.962962962962962</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -4507,16 +4507,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>25.925925925925924</v>
+        <v>53.850000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>74.074074074074076</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>42.310000000000002</v>
       </c>
       <c r="E12" s="0">
-        <v>100</v>
+        <v>57.689999999999998</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -4530,22 +4530,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C13" s="0">
-        <v>28.000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E13" s="0">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G13" s="0">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -4553,22 +4553,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>52.93138651471984</v>
+        <v>33.359999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>47.06861348528016</v>
+        <v>66.640000000000001</v>
       </c>
       <c r="D14" s="0">
-        <v>38.693019943019941</v>
+        <v>44.700000000000003</v>
       </c>
       <c r="E14" s="0">
-        <v>61.306980056980059</v>
+        <v>55.299999999999997</v>
       </c>
       <c r="F14" s="0">
-        <v>24.18981481481482</v>
+        <v>50.840000000000003</v>
       </c>
       <c r="G14" s="0">
-        <v>75.810185185185176</v>
+        <v>49.159999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4617,22 +4617,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>22.222222222222221</v>
+        <v>22.219999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>77.777777777777786</v>
+        <v>77.780000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0">
-        <v>62.962962962962962</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0">
-        <v>37.037037037037038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4646,16 +4646,16 @@
         <v>100</v>
       </c>
       <c r="D3" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>100</v>
+        <v>91.670000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>8.3300000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4663,10 +4663,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>19.230769230769234</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>80.769230769230774</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <v>100</v>
       </c>
       <c r="F4" s="0">
-        <v>28.000000000000004</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="G4" s="0">
-        <v>72</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="5">
@@ -4686,22 +4686,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>92.307692307692307</v>
+        <v>66.670000000000002</v>
       </c>
       <c r="E5" s="0">
-        <v>7.6923076923076925</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="F5" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -4709,22 +4709,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>55.560000000000002</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>44.439999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -4732,16 +4732,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>32</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="C7" s="0">
-        <v>68</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>88.888888888888886</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>11.111111111111111</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -4755,22 +4755,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="C8" s="0">
-        <v>100</v>
+        <v>69.230000000000004</v>
       </c>
       <c r="D8" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E8" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>29.629629629629626</v>
+        <v>18.52</v>
       </c>
       <c r="G8" s="0">
-        <v>70.370370370370367</v>
+        <v>81.480000000000004</v>
       </c>
     </row>
     <row r="9">
@@ -4778,22 +4778,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="C9" s="0">
-        <v>100</v>
+        <v>11.539999999999999</v>
       </c>
       <c r="D9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0">
-        <v>69.230769230769226</v>
+        <v>26.920000000000002</v>
       </c>
       <c r="G9" s="0">
-        <v>30.76923076923077</v>
+        <v>73.079999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -4801,10 +4801,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>76.923076923076934</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -4813,10 +4813,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4824,22 +4824,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F11" s="0">
-        <v>72</v>
+        <v>29.629999999999999</v>
       </c>
       <c r="G11" s="0">
-        <v>28.000000000000004</v>
+        <v>70.370000000000005</v>
       </c>
     </row>
     <row r="12">
@@ -4847,10 +4847,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -4859,10 +4859,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="0">
-        <v>3.7037037037037033</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0">
-        <v>96.296296296296291</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -4870,10 +4870,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>53.846153846153847</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>46.153846153846153</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -4893,22 +4893,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>25.888481888481891</v>
+        <v>26.530000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>74.111518111518109</v>
+        <v>73.469999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>53.099715099715098</v>
+        <v>25.890000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>46.900284900284902</v>
+        <v>74.109999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>47.127255460588792</v>
+        <v>54.740000000000002</v>
       </c>
       <c r="G14" s="0">
-        <v>52.872744539411208</v>
+        <v>45.259999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4963,16 +4963,16 @@
         <v>100</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>26.920000000000002</v>
       </c>
       <c r="G2" s="0">
-        <v>100</v>
+        <v>73.079999999999998</v>
       </c>
     </row>
     <row r="3">
@@ -4986,16 +4986,16 @@
         <v>100</v>
       </c>
       <c r="D3" s="0">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -5003,22 +5003,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>88.461538461538453</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="E4" s="0">
-        <v>11.538461538461538</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="F4" s="0">
-        <v>100</v>
+        <v>37.5</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5">
@@ -5038,10 +5038,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>92.590000000000003</v>
       </c>
       <c r="G5" s="0">
-        <v>100</v>
+        <v>7.4100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5049,10 +5049,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="C6" s="0">
-        <v>100</v>
+        <v>11.539999999999999</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
@@ -5061,10 +5061,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -5072,22 +5072,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>84.615384615384613</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>15.384615384615385</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>65.379999999999995</v>
       </c>
       <c r="F7" s="0">
-        <v>62.962962962962962</v>
+        <v>80.769999999999996</v>
       </c>
       <c r="G7" s="0">
-        <v>37.037037037037038</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="8">
@@ -5095,22 +5095,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>95.652173913043484</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>4.3478260869565215</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0">
-        <v>93.103448275862064</v>
+        <v>68</v>
       </c>
       <c r="E8" s="0">
-        <v>6.8965517241379306</v>
+        <v>32</v>
       </c>
       <c r="F8" s="0">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>76.923076923076934</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -5124,16 +5124,16 @@
         <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -5141,16 +5141,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>26.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>73.076923076923066</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="E10" s="0">
-        <v>100</v>
+        <v>65.379999999999995</v>
       </c>
       <c r="F10" s="0">
         <v>0</v>
@@ -5164,22 +5164,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>100</v>
+        <v>40.740000000000002</v>
       </c>
       <c r="C11" s="0">
-        <v>0</v>
+        <v>59.259999999999998</v>
       </c>
       <c r="D11" s="0">
-        <v>7.4074074074074066</v>
+        <v>100</v>
       </c>
       <c r="E11" s="0">
-        <v>92.592592592592595</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>37.5</v>
+        <v>96</v>
       </c>
       <c r="G11" s="0">
-        <v>62.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -5187,16 +5187,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="D12" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -5216,16 +5216,16 @@
         <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -5233,22 +5233,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>33.932552954292085</v>
+        <v>11.09</v>
       </c>
       <c r="C14" s="0">
-        <v>66.067447045707908</v>
+        <v>88.909999999999997</v>
       </c>
       <c r="D14" s="0">
-        <v>31.08103284540066</v>
+        <v>46.490000000000002</v>
       </c>
       <c r="E14" s="0">
-        <v>68.918967154599343</v>
+        <v>53.509999999999998</v>
       </c>
       <c r="F14" s="0">
-        <v>41.461657169990502</v>
+        <v>27.82</v>
       </c>
       <c r="G14" s="0">
-        <v>58.538342830009498</v>
+        <v>72.189999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5297,10 +5297,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0</v>
+        <v>96.430000000000007</v>
       </c>
       <c r="C2" s="0">
-        <v>100</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -5320,16 +5320,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>96.299999999999997</v>
       </c>
       <c r="D3" s="0">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>100</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -5366,16 +5366,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>100</v>
+        <v>62.960000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>37.039999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>88.461538461538453</v>
+        <v>100</v>
       </c>
       <c r="E5" s="0">
-        <v>11.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
         <v>0</v>
@@ -5401,10 +5401,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5412,22 +5412,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>16.666666666666664</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>83.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>14.285714285714285</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0">
-        <v>85.714285714285708</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="G7" s="0">
-        <v>100</v>
+        <v>3.8500000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5441,16 +5441,16 @@
         <v>100</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>33.333333333333329</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="G8" s="0">
-        <v>66.666666666666657</v>
+        <v>53.850000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5464,10 +5464,10 @@
         <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>43.479999999999997</v>
       </c>
       <c r="E9" s="0">
-        <v>100</v>
+        <v>56.520000000000003</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -5481,22 +5481,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>51.851851851851848</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>48.148148148148145</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -5504,22 +5504,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D11" s="0">
-        <v>7.6923076923076925</v>
+        <v>54.170000000000002</v>
       </c>
       <c r="E11" s="0">
-        <v>92.307692307692307</v>
+        <v>45.829999999999998</v>
       </c>
       <c r="F11" s="0">
-        <v>85.18518518518519</v>
+        <v>100</v>
       </c>
       <c r="G11" s="0">
-        <v>14.814814814814813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5527,22 +5527,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>28.000000000000004</v>
+        <v>100</v>
       </c>
       <c r="E12" s="0">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>3.8461538461538463</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>96.15384615384616</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -5550,16 +5550,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>96.296296296296291</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>3.7037037037037033</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -5573,22 +5573,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>25.912698412698415</v>
+        <v>30.420000000000002</v>
       </c>
       <c r="C14" s="0">
-        <v>74.087301587301582</v>
+        <v>69.579999999999998</v>
       </c>
       <c r="D14" s="0">
-        <v>27.894654727988058</v>
+        <v>50.469999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>72.105345272011931</v>
+        <v>49.530000000000001</v>
       </c>
       <c r="F14" s="0">
-        <v>31.184710351377017</v>
+        <v>45.189999999999998</v>
       </c>
       <c r="G14" s="0">
-        <v>68.815289648622979</v>
+        <v>54.810000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5637,22 +5637,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>50</v>
+        <v>96.299999999999997</v>
       </c>
       <c r="C2" s="0">
-        <v>50</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="D2" s="0">
-        <v>92.307692307692307</v>
+        <v>60</v>
       </c>
       <c r="E2" s="0">
-        <v>7.6923076923076925</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>100</v>
+        <v>53.850000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5672,10 +5672,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>7.4074074074074066</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="C4" s="0">
-        <v>92.592592592592595</v>
+        <v>25.93</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>100</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>58.329999999999998</v>
       </c>
       <c r="G4" s="0">
-        <v>100</v>
+        <v>41.670000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -5706,10 +5706,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>19.230769230769234</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>80.769230769230774</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -5718,10 +5718,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>91.304347826086953</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>8.695652173913043</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -5729,22 +5729,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>71.428571428571431</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="C6" s="0">
-        <v>28.571428571428569</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="D6" s="0">
-        <v>33.333333333333329</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="E6" s="0">
-        <v>66.666666666666657</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="F6" s="0">
-        <v>71.428571428571431</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>28.571428571428569</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -5758,16 +5758,16 @@
         <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -5775,22 +5775,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>65.384615384615387</v>
+        <v>14.289999999999999</v>
       </c>
       <c r="C8" s="0">
-        <v>34.615384615384613</v>
+        <v>85.709999999999994</v>
       </c>
       <c r="D8" s="0">
-        <v>96.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>3.8461538461538463</v>
+        <v>100</v>
       </c>
       <c r="F8" s="0">
-        <v>7.6923076923076925</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="G8" s="0">
-        <v>92.307692307692307</v>
+        <v>92.590000000000003</v>
       </c>
     </row>
     <row r="9">
@@ -5798,22 +5798,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>77.777777777777786</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>22.222222222222221</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -5833,10 +5833,10 @@
         <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>34.615384615384613</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>65.384615384615387</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -5844,22 +5844,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>65.384615384615387</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>34.615384615384613</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>30.77</v>
       </c>
       <c r="E11" s="0">
-        <v>100</v>
+        <v>69.230000000000004</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>7.4100000000000001</v>
       </c>
       <c r="G11" s="0">
-        <v>100</v>
+        <v>92.590000000000003</v>
       </c>
     </row>
     <row r="12">
@@ -5867,16 +5867,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>53.850000000000001</v>
       </c>
       <c r="D12" s="0">
-        <v>25.925925925925924</v>
+        <v>53.850000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>74.074074074074076</v>
+        <v>46.149999999999999</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -5890,22 +5890,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>100</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>66.670000000000002</v>
       </c>
       <c r="D13" s="0">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0">
-        <v>87.5</v>
+        <v>40</v>
       </c>
       <c r="F13" s="0">
-        <v>51.851851851851848</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>48.148148148148145</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -5913,22 +5913,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>38.051146384479722</v>
+        <v>22.649999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>61.948853615520278</v>
+        <v>77.349999999999994</v>
       </c>
       <c r="D14" s="0">
-        <v>28.351733143399812</v>
+        <v>20.030000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>71.648266856600188</v>
+        <v>79.969999999999999</v>
       </c>
       <c r="F14" s="0">
-        <v>29.741038617850212</v>
+        <v>22.940000000000001</v>
       </c>
       <c r="G14" s="0">
-        <v>70.258961382149792</v>
+        <v>77.060000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5977,22 +5977,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>61.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>38.461538461538467</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0">
-        <v>100</v>
+        <v>39.130000000000003</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>60.869999999999997</v>
       </c>
       <c r="F2" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6006,16 +6006,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>80.769230769230774</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="E3" s="0">
-        <v>19.230769230769234</v>
+        <v>35.710000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -6023,16 +6023,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>46.153846153846153</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0">
-        <v>53.846153846153847</v>
+        <v>40</v>
       </c>
       <c r="D4" s="0">
-        <v>46.153846153846153</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>53.846153846153847</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -6046,22 +6046,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>60.869565217391312</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>39.130434782608695</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0">
-        <v>3.4482758620689653</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>96.551724137931032</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>53.846153846153847</v>
+        <v>100</v>
       </c>
       <c r="G5" s="0">
-        <v>46.153846153846153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6075,10 +6075,10 @@
         <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -6092,22 +6092,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E7" s="0">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0">
-        <v>29.629629629629626</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="G7" s="0">
-        <v>70.370370370370367</v>
+        <v>66.670000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -6121,10 +6121,10 @@
         <v>100</v>
       </c>
       <c r="D8" s="0">
-        <v>29.629629629629626</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>70.370370370370367</v>
+        <v>100</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E9" s="0">
-        <v>100</v>
+        <v>95.650000000000006</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -6161,22 +6161,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0">
-        <v>3.7037037037037033</v>
+        <v>100</v>
       </c>
       <c r="E10" s="0">
-        <v>96.296296296296291</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>76.923076923076934</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -6190,16 +6190,16 @@
         <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>11.111111111111111</v>
+        <v>42.310000000000002</v>
       </c>
       <c r="E11" s="0">
-        <v>88.888888888888886</v>
+        <v>57.689999999999998</v>
       </c>
       <c r="F11" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G11" s="0">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -6207,22 +6207,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D12" s="0">
-        <v>55.555555555555557</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>44.444444444444443</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="G12" s="0">
-        <v>100</v>
+        <v>65.379999999999995</v>
       </c>
     </row>
     <row r="13">
@@ -6230,16 +6230,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>84.615384615384613</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>15.384615384615385</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>3.8461538461538463</v>
+        <v>11.539999999999999</v>
       </c>
       <c r="E13" s="0">
-        <v>96.15384615384616</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -6253,22 +6253,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>37.764771460423638</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="C14" s="0">
-        <v>62.235228539576362</v>
+        <v>72.670000000000002</v>
       </c>
       <c r="D14" s="0">
-        <v>38.184792219274975</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E14" s="0">
-        <v>61.815207780725025</v>
+        <v>67.200000000000003</v>
       </c>
       <c r="F14" s="0">
-        <v>25.546058879392216</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="G14" s="0">
-        <v>74.45394112060778</v>
+        <v>83.670000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6317,22 +6317,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>65.384615384615387</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>34.615384615384613</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0">
-        <v>3.8461538461538463</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>96.15384615384616</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0">
-        <v>92</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>8</v>
+        <v>84.620000000000005</v>
       </c>
     </row>
     <row r="3">
@@ -6340,22 +6340,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>46.43</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>53.57</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E3" s="0">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>46.43</v>
       </c>
       <c r="G3" s="0">
-        <v>100</v>
+        <v>53.57</v>
       </c>
     </row>
     <row r="4">
@@ -6363,22 +6363,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>44.444444444444443</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0">
-        <v>55.555555555555557</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>29.629999999999999</v>
       </c>
       <c r="E4" s="0">
-        <v>100</v>
+        <v>70.370000000000005</v>
       </c>
       <c r="F4" s="0">
-        <v>46.153846153846153</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0">
-        <v>53.846153846153847</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -6386,22 +6386,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0">
-        <v>87.5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>85.189999999999998</v>
       </c>
       <c r="E5" s="0">
-        <v>100</v>
+        <v>14.81</v>
       </c>
       <c r="F5" s="0">
-        <v>19.230769230769234</v>
+        <v>88.459999999999994</v>
       </c>
       <c r="G5" s="0">
-        <v>80.769230769230774</v>
+        <v>11.539999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -6409,22 +6409,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>18.518518518518519</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>81.481481481481481</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0">
-        <v>25.925925925925924</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>74.074074074074076</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -6432,22 +6432,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>85.714285714285708</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>42.307692307692307</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="G7" s="0">
-        <v>57.692307692307686</v>
+        <v>65.379999999999995</v>
       </c>
     </row>
     <row r="8">
@@ -6455,22 +6455,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0">
-        <v>100</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="F8" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -6478,22 +6478,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>11.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>88.461538461538453</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0">
-        <v>70.833333333333343</v>
+        <v>100</v>
       </c>
       <c r="E9" s="0">
-        <v>29.166666666666668</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6501,22 +6501,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>100</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="D10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -6536,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="0">
-        <v>85.18518518518519</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>14.814814814814813</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -6547,22 +6547,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>32.140000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>67.859999999999999</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E12" s="0">
-        <v>100</v>
+        <v>62.5</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6570,16 +6570,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>26.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>73.076923076923066</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>39.58969271469271</v>
+        <v>20.870000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>60.410307285307283</v>
+        <v>79.129999999999995</v>
       </c>
       <c r="D14" s="0">
-        <v>41.099833808167141</v>
+        <v>46.75</v>
       </c>
       <c r="E14" s="0">
-        <v>58.900166191832859</v>
+        <v>53.25</v>
       </c>
       <c r="F14" s="0">
-        <v>42.566951566951566</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="G14" s="0">
-        <v>57.433048433048434</v>
+        <v>64.590000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6657,16 +6657,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>57.692307692307686</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0">
-        <v>42.307692307692307</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>19.230769230769234</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>80.769230769230774</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -6680,22 +6680,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>81.481481481481481</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="G3" s="0">
-        <v>18.518518518518519</v>
+        <v>76.920000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -6709,16 +6709,16 @@
         <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>30.434782608695656</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>69.565217391304344</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -6726,22 +6726,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>19.230769230769234</v>
+        <v>100</v>
       </c>
       <c r="C5" s="0">
-        <v>80.769230769230774</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>69.230769230769226</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -6749,22 +6749,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0">
-        <v>14.814814814814813</v>
+        <v>57.140000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>85.18518518518519</v>
+        <v>42.859999999999999</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -6772,22 +6772,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>100</v>
+        <v>51.850000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="F7" s="0">
-        <v>100</v>
+        <v>33.329999999999998</v>
       </c>
       <c r="G7" s="0">
-        <v>0</v>
+        <v>66.670000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -6795,10 +6795,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="C8" s="0">
-        <v>100</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -6807,10 +6807,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>3.5699999999999998</v>
       </c>
       <c r="G8" s="0">
-        <v>100</v>
+        <v>96.430000000000007</v>
       </c>
     </row>
     <row r="9">
@@ -6818,22 +6818,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>38.460000000000001</v>
       </c>
       <c r="C9" s="0">
-        <v>100</v>
+        <v>61.539999999999999</v>
       </c>
       <c r="D9" s="0">
-        <v>4.1666666666666661</v>
+        <v>100</v>
       </c>
       <c r="E9" s="0">
-        <v>95.833333333333343</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>38.461538461538467</v>
+        <v>95.650000000000006</v>
       </c>
       <c r="G9" s="0">
-        <v>61.53846153846154</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="10">
@@ -6841,22 +6841,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>100</v>
+        <v>85.189999999999998</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>14.81</v>
       </c>
       <c r="D10" s="0">
-        <v>15.384615384615385</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0">
-        <v>84.615384615384613</v>
+        <v>76</v>
       </c>
       <c r="F10" s="0">
-        <v>30.76923076923077</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>69.230769230769226</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -6864,22 +6864,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>53.571428571428569</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>46.428571428571431</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>16.666666666666664</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>83.333333333333343</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -6893,16 +6893,16 @@
         <v>100</v>
       </c>
       <c r="D12" s="0">
-        <v>50</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="E12" s="0">
-        <v>50</v>
+        <v>3.8500000000000001</v>
       </c>
       <c r="F12" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -6916,16 +6916,16 @@
         <v>100</v>
       </c>
       <c r="D13" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>18.52</v>
       </c>
       <c r="G13" s="0">
-        <v>100</v>
+        <v>81.480000000000004</v>
       </c>
     </row>
     <row r="14">
@@ -6933,22 +6933,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>33.207875457875453</v>
+        <v>41.710000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>66.79212454212454</v>
+        <v>58.289999999999999</v>
       </c>
       <c r="D14" s="0">
-        <v>20.891526281019033</v>
+        <v>49.100000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>79.108473718980974</v>
+        <v>50.909999999999997</v>
       </c>
       <c r="F14" s="0">
-        <v>41.456790123456791</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="G14" s="0">
-        <v>58.543209876543209</v>
+        <v>81.489999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -6997,22 +6997,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>11.538461538461538</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>88.461538461538453</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0">
-        <v>23.076923076923077</v>
+        <v>60</v>
       </c>
       <c r="E2" s="0">
-        <v>76.923076923076934</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -7020,22 +7020,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>73.079999999999998</v>
       </c>
       <c r="C3" s="0">
-        <v>100</v>
+        <v>26.920000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" s="0">
-        <v>0</v>
+        <v>96.150000000000006</v>
       </c>
       <c r="G3" s="0">
-        <v>100</v>
+        <v>3.8500000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -7043,16 +7043,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>100</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -7066,10 +7066,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>85.18518518518519</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0">
-        <v>14.814814814814813</v>
+        <v>84</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -7078,10 +7078,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>73.079999999999998</v>
       </c>
       <c r="G5" s="0">
-        <v>100</v>
+        <v>26.920000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -7089,16 +7089,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>92.307692307692307</v>
+        <v>23.68</v>
       </c>
       <c r="C6" s="0">
-        <v>7.6923076923076925</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="D6" s="0">
-        <v>84.615384615384613</v>
+        <v>63.159999999999997</v>
       </c>
       <c r="E6" s="0">
-        <v>15.384615384615385</v>
+        <v>36.840000000000003</v>
       </c>
       <c r="F6" s="0">
         <v>100</v>
@@ -7118,10 +7118,10 @@
         <v>100</v>
       </c>
       <c r="D7" s="0">
-        <v>3.8461538461538463</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>96.15384615384616</v>
+        <v>96.299999999999997</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -7135,22 +7135,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0">
-        <v>20.833333333333336</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="E8" s="0">
-        <v>79.166666666666657</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="F8" s="0">
-        <v>53.571428571428569</v>
+        <v>48.149999999999999</v>
       </c>
       <c r="G8" s="0">
-        <v>46.428571428571431</v>
+        <v>51.850000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -7158,16 +7158,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>65.384615384615387</v>
+        <v>7.6900000000000004</v>
       </c>
       <c r="C9" s="0">
-        <v>34.615384615384613</v>
+        <v>92.310000000000002</v>
       </c>
       <c r="D9" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -7181,22 +7181,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>20.833333333333336</v>
+        <v>100</v>
       </c>
       <c r="C10" s="0">
-        <v>79.166666666666657</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>7.1428571428571423</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>92.857142857142861</v>
+        <v>100</v>
       </c>
       <c r="F10" s="0">
-        <v>100</v>
+        <v>59.259999999999998</v>
       </c>
       <c r="G10" s="0">
-        <v>0</v>
+        <v>40.740000000000002</v>
       </c>
     </row>
     <row r="11">
@@ -7210,16 +7210,16 @@
         <v>100</v>
       </c>
       <c r="D11" s="0">
-        <v>0</v>
+        <v>23.079999999999998</v>
       </c>
       <c r="E11" s="0">
-        <v>100</v>
+        <v>76.920000000000002</v>
       </c>
       <c r="F11" s="0">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -7227,22 +7227,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D12" s="0">
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="E12" s="0">
-        <v>100</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G12" s="0">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -7250,22 +7250,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>84.620000000000005</v>
       </c>
       <c r="C13" s="0">
-        <v>100</v>
+        <v>15.380000000000001</v>
       </c>
       <c r="D13" s="0">
-        <v>3.7037037037037033</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>96.296296296296291</v>
+        <v>100</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>42.310000000000002</v>
       </c>
       <c r="G13" s="0">
-        <v>100</v>
+        <v>57.689999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -7273,22 +7273,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>39.60410731244064</v>
+        <v>31.670000000000002</v>
       </c>
       <c r="C14" s="0">
-        <v>60.395892687559353</v>
+        <v>68.329999999999998</v>
       </c>
       <c r="D14" s="0">
-        <v>28.601529643196312</v>
+        <v>16.199999999999999</v>
       </c>
       <c r="E14" s="0">
-        <v>71.398470356803685</v>
+        <v>83.799999999999997</v>
       </c>
       <c r="F14" s="0">
-        <v>29.464285714285712</v>
+        <v>41.25</v>
       </c>
       <c r="G14" s="0">
-        <v>70.535714285714292</v>
+        <v>58.75</v>
       </c>
     </row>
   </sheetData>
